--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Retinopatía de fondo (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70.20836616915415</v>
+        <v>70.20704477611932</v>
       </c>
       <c r="B2" t="n">
-        <v>51.8869057720058</v>
+        <v>51.64800000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>82.79820482850478</v>
+        <v>82.76000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8210890310352993</v>
+        <v>0.8654925373134325</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09592427307340128</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="C3" t="n">
-        <v>1.875361031561033</v>
+        <v>1.879999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.733119071310105</v>
+        <v>3.7212935323383</v>
       </c>
       <c r="B4" t="n">
-        <v>1.667110821762114</v>
+        <v>1.38</v>
       </c>
       <c r="C4" t="n">
-        <v>6.537682539682534</v>
+        <v>6.496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9458494023389536</v>
+        <v>0.9647761194029849</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1311525763063072</v>
+        <v>0.052</v>
       </c>
       <c r="C5" t="n">
-        <v>2.112518888518887</v>
+        <v>2.108000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16.97614461028192</v>
+        <v>16.90185074626865</v>
       </c>
       <c r="B6" t="n">
-        <v>8.421324975024973</v>
+        <v>8.375999999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>25.05064444444444</v>
+        <v>25.04399999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66.37519071310108</v>
+        <v>66.60573134328347</v>
       </c>
       <c r="B7" t="n">
-        <v>48.92407898027897</v>
+        <v>49.256</v>
       </c>
       <c r="C7" t="n">
-        <v>80.0263333333334</v>
+        <v>80.03199999999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96.36298283343778</v>
+        <v>96.39209950248747</v>
       </c>
       <c r="B8" t="n">
-        <v>93.60445602743006</v>
+        <v>93.49600000000005</v>
       </c>
       <c r="C8" t="n">
-        <v>98.3784679072205</v>
+        <v>98.428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15.24213598673299</v>
+        <v>15.28031840796019</v>
       </c>
       <c r="B9" t="n">
-        <v>7.847143419543416</v>
+        <v>7.595999999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>23.62670952380955</v>
+        <v>23.66399999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96.34788627223386</v>
+        <v>96.36539303482574</v>
       </c>
       <c r="B10" t="n">
-        <v>93.6070057350324</v>
+        <v>93.40800000000007</v>
       </c>
       <c r="C10" t="n">
-        <v>98.32135356798652</v>
+        <v>98.22799999999992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86.37153095632937</v>
+        <v>86.3321791044775</v>
       </c>
       <c r="B11" t="n">
-        <v>75.35702591319931</v>
+        <v>75.33200000000005</v>
       </c>
       <c r="C11" t="n">
-        <v>93.13605019704009</v>
+        <v>93.10399999999996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>45.00687761194017</v>
+        <v>45.08495522388047</v>
       </c>
       <c r="B12" t="n">
-        <v>27.55084771524771</v>
+        <v>27.92000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>59.45733333333337</v>
+        <v>59.71199999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95.45365894718849</v>
+        <v>95.46189054726355</v>
       </c>
       <c r="B13" t="n">
-        <v>91.3965935439375</v>
+        <v>91.56400000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>97.98837451819136</v>
+        <v>97.94400000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>92.66704707611279</v>
+        <v>92.53745273631829</v>
       </c>
       <c r="B14" t="n">
-        <v>86.28163479426848</v>
+        <v>86.18400000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>96.60971661515299</v>
+        <v>96.63600000000004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.154107143216098</v>
+        <v>1.163044776119401</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2351433941638159</v>
+        <v>0.136</v>
       </c>
       <c r="C15" t="n">
-        <v>2.341096825396822</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.07614063018242</v>
+        <v>17.00549253731343</v>
       </c>
       <c r="B16" t="n">
-        <v>8.508801938801936</v>
+        <v>8.535999999999998</v>
       </c>
       <c r="C16" t="n">
-        <v>25.03233333333332</v>
+        <v>25.07599999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>44.59616915422878</v>
+        <v>44.61460696517405</v>
       </c>
       <c r="B17" t="n">
-        <v>26.61777777777777</v>
+        <v>27.45199999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>59.38577777777786</v>
+        <v>59.58799999999996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.733119071310105</v>
+        <v>3.7212935323383</v>
       </c>
       <c r="B18" t="n">
-        <v>1.667110821762114</v>
+        <v>1.38</v>
       </c>
       <c r="C18" t="n">
-        <v>6.529187301587295</v>
+        <v>6.496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>86.60521311695489</v>
+        <v>86.56181094527358</v>
       </c>
       <c r="B19" t="n">
-        <v>76.90875739162797</v>
+        <v>77.14799999999997</v>
       </c>
       <c r="C19" t="n">
-        <v>93.4071846227847</v>
+        <v>93.44799999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.74553300165837</v>
+        <v>18.68131343283582</v>
       </c>
       <c r="B20" t="n">
-        <v>9.686316915328677</v>
+        <v>9.415999999999997</v>
       </c>
       <c r="C20" t="n">
-        <v>27.08119999999997</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.112789196872772</v>
+        <v>5.135641791044767</v>
       </c>
       <c r="B21" t="n">
-        <v>2.333085243938244</v>
+        <v>2.352000000000002</v>
       </c>
       <c r="C21" t="n">
-        <v>8.646380952380946</v>
+        <v>8.620000000000006</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96.43560897068248</v>
+        <v>96.48328358208944</v>
       </c>
       <c r="B22" t="n">
-        <v>93.60952954455621</v>
+        <v>94.02399999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>98.32081694884835</v>
+        <v>98.37999999999998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.188618415857221</v>
+        <v>1.196218905472636</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1625374548702583</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>2.619416786916791</v>
+        <v>2.615999999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17.03193167495854</v>
+        <v>16.9916815920398</v>
       </c>
       <c r="B24" t="n">
-        <v>8.505024161024158</v>
+        <v>8.555999999999997</v>
       </c>
       <c r="C24" t="n">
-        <v>25.12004444444444</v>
+        <v>25.21199999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.34106042801863</v>
+        <v>14.27719402985073</v>
       </c>
       <c r="B25" t="n">
-        <v>7.086503498244673</v>
+        <v>7.275999999999995</v>
       </c>
       <c r="C25" t="n">
-        <v>22.08717619047619</v>
+        <v>22.05600000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.0892961620469</v>
+        <v>5.094228855721386</v>
       </c>
       <c r="B26" t="n">
-        <v>2.314755573608574</v>
+        <v>2.204000000000002</v>
       </c>
       <c r="C26" t="n">
-        <v>8.692825396825384</v>
+        <v>8.672000000000008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>95.48328899657002</v>
+        <v>95.51659701492525</v>
       </c>
       <c r="B27" t="n">
-        <v>91.3965935439375</v>
+        <v>92.00000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>98.07789416065386</v>
+        <v>98.21199999999995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>68.58515422885563</v>
+        <v>68.60244776119393</v>
       </c>
       <c r="B28" t="n">
-        <v>50.15884896584898</v>
+        <v>50.52800000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>81.79306507936501</v>
+        <v>81.73600000000006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.233588399273473</v>
+        <v>1.228278606965172</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1637739980801349</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2.632657142857148</v>
+        <v>2.643999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43.15526699834153</v>
+        <v>43.14923383084566</v>
       </c>
       <c r="B30" t="n">
-        <v>25.85018638398638</v>
+        <v>25.596</v>
       </c>
       <c r="C30" t="n">
-        <v>57.69228888888898</v>
+        <v>57.70399999999998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>92.49096278922836</v>
+        <v>92.3635621890546</v>
       </c>
       <c r="B31" t="n">
-        <v>85.90534244450849</v>
+        <v>85.97599999999998</v>
       </c>
       <c r="C31" t="n">
-        <v>96.49051058294994</v>
+        <v>96.43600000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95.3068991849633</v>
+        <v>95.34121393034813</v>
       </c>
       <c r="B32" t="n">
-        <v>91.39344687727082</v>
+        <v>91.43600000000002</v>
       </c>
       <c r="C32" t="n">
-        <v>97.83764104856959</v>
+        <v>97.81600000000007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>92.6698113973637</v>
+        <v>92.68531343283577</v>
       </c>
       <c r="B33" t="n">
-        <v>86.41046035125615</v>
+        <v>86.00800000000007</v>
       </c>
       <c r="C33" t="n">
-        <v>96.6055839491262</v>
+        <v>96.536</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>72.53995489220554</v>
+        <v>72.33343283582083</v>
       </c>
       <c r="B34" t="n">
-        <v>56.2775365079365</v>
+        <v>56.10799999999998</v>
       </c>
       <c r="C34" t="n">
-        <v>85.35249411764725</v>
+        <v>85.28399999999993</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17.52772736318407</v>
+        <v>17.54883582089551</v>
       </c>
       <c r="B35" t="n">
-        <v>9.537138597350362</v>
+        <v>9.760000000000002</v>
       </c>
       <c r="C35" t="n">
-        <v>26.65332857142859</v>
+        <v>26.56399999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66.79399004975119</v>
+        <v>66.90963184079595</v>
       </c>
       <c r="B36" t="n">
-        <v>48.93295993265993</v>
+        <v>48.9</v>
       </c>
       <c r="C36" t="n">
-        <v>80.42251111111102</v>
+        <v>80.44000000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.607457711442774</v>
+        <v>5.575363184079588</v>
       </c>
       <c r="B37" t="n">
-        <v>2.350395531346055</v>
+        <v>2.524000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>9.051228571428581</v>
+        <v>9.079999999999997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>92.8291337382351</v>
+        <v>92.74728358208949</v>
       </c>
       <c r="B38" t="n">
-        <v>86.25389387901373</v>
+        <v>86.66000000000004</v>
       </c>
       <c r="C38" t="n">
-        <v>96.61466652635293</v>
+        <v>96.62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45.10297711442769</v>
+        <v>45.19542288557196</v>
       </c>
       <c r="B39" t="n">
-        <v>27.91797657527657</v>
+        <v>27.93599999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>60.38666666666666</v>
+        <v>60.53199999999996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.320421120228574</v>
+        <v>4.311402985074625</v>
       </c>
       <c r="B40" t="n">
-        <v>1.701348351363326</v>
+        <v>1.903999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>7.53897777777778</v>
+        <v>7.451999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>64.02602985074614</v>
+        <v>63.99906467661678</v>
       </c>
       <c r="B41" t="n">
-        <v>45.70548888888888</v>
+        <v>45.72000000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>77.81577777777783</v>
+        <v>77.81599999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>86.47410216378415</v>
+        <v>86.50762189054721</v>
       </c>
       <c r="B42" t="n">
-        <v>75.77351890350791</v>
+        <v>75.59600000000002</v>
       </c>
       <c r="C42" t="n">
-        <v>93.23124218098205</v>
+        <v>93.19999999999993</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.19419237147586</v>
+        <v>43.14923383084566</v>
       </c>
       <c r="B43" t="n">
-        <v>25.8882197173197</v>
+        <v>25.596</v>
       </c>
       <c r="C43" t="n">
-        <v>57.67362222222232</v>
+        <v>57.70399999999998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>84.49749917081255</v>
+        <v>84.24352238805965</v>
       </c>
       <c r="B44" t="n">
-        <v>71.95348797912325</v>
+        <v>71.69200000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>92.17603857623862</v>
+        <v>92.07999999999997</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>86.63577499802574</v>
+        <v>86.74009950248757</v>
       </c>
       <c r="B45" t="n">
-        <v>76.26698511522872</v>
+        <v>76.77599999999993</v>
       </c>
       <c r="C45" t="n">
-        <v>93.34871448830427</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>92.1828059701492</v>
+        <v>92.19359203980095</v>
       </c>
       <c r="B46" t="n">
-        <v>85.78041694329258</v>
+        <v>85.72800000000002</v>
       </c>
       <c r="C46" t="n">
-        <v>96.29420617160612</v>
+        <v>96.24799999999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>96.40438800121242</v>
+        <v>96.4461691542287</v>
       </c>
       <c r="B47" t="n">
-        <v>93.60952954455621</v>
+        <v>93.62800000000007</v>
       </c>
       <c r="C47" t="n">
-        <v>98.33169704323507</v>
+        <v>98.35199999999995</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45.23073631840787</v>
+        <v>45.22314427860688</v>
       </c>
       <c r="B48" t="n">
-        <v>27.57088104858105</v>
+        <v>28.12</v>
       </c>
       <c r="C48" t="n">
-        <v>60.05188888888891</v>
+        <v>60.34399999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.087475685066722</v>
+        <v>4.10666666666665</v>
       </c>
       <c r="B49" t="n">
-        <v>1.680618068138926</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>6.940241414141415</v>
+        <v>7.008000000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.614646766169142</v>
+        <v>5.562348258706453</v>
       </c>
       <c r="B50" t="n">
-        <v>2.363788693739217</v>
+        <v>2.408000000000002</v>
       </c>
       <c r="C50" t="n">
-        <v>9.111117460317466</v>
+        <v>9.224000000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8098344468135508</v>
+        <v>0.8154427860696513</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08377390890368729</v>
+        <v>0.112</v>
       </c>
       <c r="C51" t="n">
-        <v>1.862564206164208</v>
+        <v>1.871999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>92.42500348258694</v>
+        <v>92.45902487562179</v>
       </c>
       <c r="B52" t="n">
-        <v>85.78344948297512</v>
+        <v>85.81200000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>96.25238110778119</v>
+        <v>96.30399999999992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44.8348656716417</v>
+        <v>45.03976119402976</v>
       </c>
       <c r="B53" t="n">
-        <v>27.10925873015872</v>
+        <v>27.99999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>60.66266666666669</v>
+        <v>60.65599999999995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.150971180174165</v>
+        <v>1.148179104477611</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154698252591056</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>2.412645887445885</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.088979080786537</v>
+        <v>5.080557213930341</v>
       </c>
       <c r="B55" t="n">
-        <v>2.319692081545082</v>
+        <v>2.260000000000002</v>
       </c>
       <c r="C55" t="n">
-        <v>8.642380952380949</v>
+        <v>8.592000000000006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>92.5968818511774</v>
+        <v>92.67313432835812</v>
       </c>
       <c r="B56" t="n">
-        <v>86.36722453478502</v>
+        <v>86.29200000000004</v>
       </c>
       <c r="C56" t="n">
-        <v>96.52710941440162</v>
+        <v>96.47199999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>95.29358179571905</v>
+        <v>95.30473631840783</v>
       </c>
       <c r="B57" t="n">
-        <v>91.39344687727082</v>
+        <v>91.50400000000008</v>
       </c>
       <c r="C57" t="n">
-        <v>97.82996973970417</v>
+        <v>97.84000000000007</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.624781426202309</v>
+        <v>5.561014925373122</v>
       </c>
       <c r="B58" t="n">
-        <v>2.345459023409547</v>
+        <v>2.444000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>9.141736507936503</v>
+        <v>9.180000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>85.59785663744753</v>
+        <v>85.69221890547247</v>
       </c>
       <c r="B59" t="n">
-        <v>74.41605051031988</v>
+        <v>74.76799999999994</v>
       </c>
       <c r="C59" t="n">
-        <v>92.70381888867989</v>
+        <v>92.68000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.186316567953881</v>
+        <v>1.197134328358207</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2423425964430181</v>
+        <v>0.2280000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>2.488164550264552</v>
+        <v>2.479999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>92.69986507646514</v>
+        <v>92.74455721393034</v>
       </c>
       <c r="B61" t="n">
-        <v>86.41046035125615</v>
+        <v>85.73600000000006</v>
       </c>
       <c r="C61" t="n">
-        <v>96.61361779121003</v>
+        <v>96.58800000000005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>86.34225606096494</v>
+        <v>86.30479601990041</v>
       </c>
       <c r="B62" t="n">
-        <v>75.20304568105327</v>
+        <v>74.96800000000005</v>
       </c>
       <c r="C62" t="n">
-        <v>93.14417241926228</v>
+        <v>93.07999999999994</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>92.80762414075689</v>
+        <v>92.78796019900484</v>
       </c>
       <c r="B63" t="n">
-        <v>86.89746089975716</v>
+        <v>86.72799999999998</v>
       </c>
       <c r="C63" t="n">
-        <v>96.7439486284958</v>
+        <v>96.68000000000004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.186316567953881</v>
+        <v>1.197492537313431</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1650733947198824</v>
+        <v>0.1720000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2.485497883597885</v>
+        <v>2.479999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>95.18767297925947</v>
+        <v>95.15235820895521</v>
       </c>
       <c r="B65" t="n">
-        <v>91.38145389481468</v>
+        <v>90.52799999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>97.76961217049323</v>
+        <v>97.572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>71.99323880597014</v>
+        <v>72.14300497512437</v>
       </c>
       <c r="B66" t="n">
-        <v>55.54886070226069</v>
+        <v>55.912</v>
       </c>
       <c r="C66" t="n">
-        <v>83.94832943722949</v>
+        <v>84.43199999999997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>70.97384941956871</v>
+        <v>70.93996019900486</v>
       </c>
       <c r="B67" t="n">
-        <v>53.59352164502166</v>
+        <v>53.44400000000005</v>
       </c>
       <c r="C67" t="n">
-        <v>83.90054565129857</v>
+        <v>84.072</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.759803514175149</v>
+        <v>4.708159203980097</v>
       </c>
       <c r="B68" t="n">
-        <v>1.824408789594972</v>
+        <v>1.975999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>7.902902645502636</v>
+        <v>7.896000000000006</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>96.47987839171488</v>
+        <v>96.51301492537299</v>
       </c>
       <c r="B69" t="n">
-        <v>93.61242470584654</v>
+        <v>93.848</v>
       </c>
       <c r="C69" t="n">
-        <v>98.35484765429351</v>
+        <v>98.42399999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.320142513263399</v>
+        <v>4.370348258706458</v>
       </c>
       <c r="B70" t="n">
-        <v>1.701348351363326</v>
+        <v>1.843999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>7.583422222222227</v>
+        <v>7.520000000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>34.68694527363173</v>
+        <v>34.68694527363174</v>
       </c>
       <c r="B71" t="n">
-        <v>20.11502222222222</v>
+        <v>19.92400000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>48.32399999999993</v>
+        <v>48.34000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>39.00261028192364</v>
+        <v>39.12135323383077</v>
       </c>
       <c r="B72" t="n">
-        <v>23.61319696969697</v>
+        <v>23.17599999999998</v>
       </c>
       <c r="C72" t="n">
-        <v>53.87800000000005</v>
+        <v>53.876</v>
       </c>
     </row>
   </sheetData>
